--- a/Lý Thuyết Module 2.xlsx
+++ b/Lý Thuyết Module 2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\Module2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegyme\module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6286C7AE-DE29-422D-9875-FCC473FBE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="656" activeTab="1" xr2:uid="{ACB3C6C9-9D2B-4FFC-8D4C-D5FCFD16291D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="656" firstSheet="14" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="6" r:id="rId1"/>
@@ -35,7 +34,7 @@
     <sheet name="22. Structural Design Pattern" sheetId="23" r:id="rId20"/>
     <sheet name="23. Behavioral Design Pattern" sheetId="24" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,7 +126,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -154,7 +153,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,7 +163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -560,7 +559,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -851,7 +850,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -861,7 +860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -878,7 +877,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -888,7 +887,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -905,7 +904,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -915,7 +914,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -1003,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1212,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1223,7 +1222,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1238,7 +1237,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,7 +1247,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1263,7 +1262,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1272,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1287,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1298,7 +1297,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1621,12 +1620,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1635,7 +1634,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1643,7 +1642,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1651,14 +1650,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1666,7 +1665,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1674,13 +1673,13 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1688,7 +1687,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1696,21 +1695,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF6600"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2438,15 +2437,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>259079</xdr:colOff>
+      <xdr:colOff>160019</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>15239</xdr:rowOff>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>161365</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>169516</xdr:rowOff>
+      <xdr:colOff>62305</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2474,8 +2473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7834255" y="472439"/>
-          <a:ext cx="5998286" cy="3022983"/>
+          <a:off x="8564879" y="586739"/>
+          <a:ext cx="6607886" cy="2973677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3465,21 +3464,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A6670-4E1A-4D0E-B99F-8AB575A9D0DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
         <v>101</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="81">
         <v>1</v>
       </c>
@@ -3495,31 +3494,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="81"/>
       <c r="C4" s="55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="81"/>
       <c r="C5" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="81"/>
       <c r="C6" s="56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="81"/>
       <c r="C7" s="58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="81">
         <v>2</v>
       </c>
@@ -3527,31 +3526,31 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="81"/>
       <c r="C9" s="60" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="81"/>
       <c r="C10" s="60" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="81"/>
       <c r="C11" s="60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="81"/>
       <c r="C12" s="60" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="81">
         <v>3</v>
       </c>
@@ -3559,31 +3558,31 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="81"/>
       <c r="C14" s="60" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="81"/>
       <c r="C15" s="60" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="81"/>
       <c r="C16" s="60" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="81"/>
       <c r="C17" s="60" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="81">
         <v>4</v>
       </c>
@@ -3591,31 +3590,31 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="81"/>
       <c r="C19" s="60" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="81"/>
       <c r="C20" s="60" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="81"/>
       <c r="C21" s="60" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="81"/>
       <c r="C22" s="60" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="79">
         <v>5</v>
       </c>
@@ -3631,27 +3630,27 @@
     <mergeCell ref="B18:B22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" location="'1. Introduction to Java'!A1" display="1. Introduction to Java" xr:uid="{A6A0278D-EA11-489C-BC0B-0DDD2081624C}"/>
-    <hyperlink ref="C4" location="'2. Vòng lặp trong Java'!A1" display="2. Vòng lặp trong Java" xr:uid="{A7BDD325-D7F6-4B25-84CF-6B2DC91BFC05}"/>
-    <hyperlink ref="C5" location="'3. Mảng và phương thức trong Ja'!A1" display="3. Mảng và phương thức trong Java" xr:uid="{466540EA-5F7B-41BE-A9D2-207EF63F506D}"/>
-    <hyperlink ref="C6" location="'4. Lớp và đối tượng trong Java'!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{621A7D78-092F-4A4D-9C12-E5B24243A19F}"/>
-    <hyperlink ref="C7" location="'5. Access modifier, static meth'!A1" display="5. Access modifier, static method, static property" xr:uid="{487F60AC-316B-4E9A-B92A-17A2D6AD0ED1}"/>
-    <hyperlink ref="C8" location="'6. Kế thừa'!A1" display="6. Kế thừa" xr:uid="{D37214F0-2BA8-4CE2-B17F-CFE053343CC1}"/>
-    <hyperlink ref="C9" location="'7. Abstract Class &amp; Interface'!A1" display="7. Abstract Class &amp; Interface" xr:uid="{6207FA1C-76AB-44AB-AB9E-02AE5204368E}"/>
-    <hyperlink ref="C10" location="'10. DSA Danh sách'!A1" display="10. DSA: Danh sách" xr:uid="{25D25FF8-04AF-448E-B832-5F507799D10E}"/>
-    <hyperlink ref="C11" location="'10. DSA Danh sách'!A1" display="10. DSA: Danh sách" xr:uid="{82C31D92-6A7F-4DD4-B928-C21FE09C3CAA}"/>
-    <hyperlink ref="C12" location="'11. DSA  Stack, Queue'!A1" display="11. DSA: Stack, Queue" xr:uid="{49D54CEE-C95D-4130-88F5-23C8C5962AB9}"/>
-    <hyperlink ref="C13" location="'12. Java Collection Framework'!A1" display="12. Java Collection Framework" xr:uid="{93A1ADC2-8161-4CB7-A1D9-B7E966F4DAE3}"/>
-    <hyperlink ref="C14" location="'13. Thuật toán tìm kiếm'!A1" display="13. Thuật toán tìm kiếm" xr:uid="{38C17D08-5960-47BB-A92A-5F2EF2D30A4C}"/>
-    <hyperlink ref="C15" location="'14. Thuật toán sắp xếp'!A1" display="14. Thuật toán sắp xếp" xr:uid="{C701152D-0E4B-47FB-AFCA-DA485D4E611F}"/>
-    <hyperlink ref="C16" location="'15. Xử lí ngoại lệ &amp; Debug'!A1" display="15. Xử lí ngoại lệ &amp; Debug" xr:uid="{73131166-9E7A-44A5-9741-1A1BF632E27A}"/>
-    <hyperlink ref="C17" location="'16. IO  Text File'!A1" display="16. IO: Text File" xr:uid="{90ED8D06-DCC5-4AE9-ABD8-FA6CC9BFA275}"/>
-    <hyperlink ref="C18" location="'17. IO  Binary File &amp; Serializa'!A1" display="17. IO: Binary File &amp; Serialization" xr:uid="{473A10D5-7834-4B70-88E4-BDA67B3FA91A}"/>
-    <hyperlink ref="C19" location="'19. String &amp; Regex'!A1" display="19. String &amp; Regex" xr:uid="{5EAABD5A-2611-413B-9270-641F51C7F2BD}"/>
-    <hyperlink ref="C20" location="'20. OOAD &amp; SOLID'!A1" display="20. OOAD &amp; SOLID" xr:uid="{4E4ABFF0-13CF-4BBD-9AF2-E9360583F010}"/>
-    <hyperlink ref="C21" location="'21. Design Patterns'!A1" display="21. Design Patterns" xr:uid="{852D39CD-2E87-4EBD-8E8A-DE0438997791}"/>
-    <hyperlink ref="C22" location="'22. Structural Design Pattern'!A1" display="22. Structural Design Pattern" xr:uid="{16B67A77-C3F4-4506-B994-3535AC043A05}"/>
-    <hyperlink ref="C23" location="'23. Behavioral Design Pattern'!A1" display="23. Behavioral Design Pattern" xr:uid="{9DE3B1F3-8479-4A1C-9126-BFBC305925A0}"/>
+    <hyperlink ref="C3" location="'1. Introduction to Java'!A1" display="1. Introduction to Java"/>
+    <hyperlink ref="C4" location="'2. Vòng lặp trong Java'!A1" display="2. Vòng lặp trong Java"/>
+    <hyperlink ref="C5" location="'3. Mảng và phương thức trong Ja'!A1" display="3. Mảng và phương thức trong Java"/>
+    <hyperlink ref="C6" location="'4. Lớp và đối tượng trong Java'!A1" display="4. Lớp và đối tượng trong Java"/>
+    <hyperlink ref="C7" location="'5. Access modifier, static meth'!A1" display="5. Access modifier, static method, static property"/>
+    <hyperlink ref="C8" location="'6. Kế thừa'!A1" display="6. Kế thừa"/>
+    <hyperlink ref="C9" location="'7. Abstract Class &amp; Interface'!A1" display="7. Abstract Class &amp; Interface"/>
+    <hyperlink ref="C10" location="'10. DSA Danh sách'!A1" display="10. DSA: Danh sách"/>
+    <hyperlink ref="C11" location="'10. DSA Danh sách'!A1" display="10. DSA: Danh sách"/>
+    <hyperlink ref="C12" location="'11. DSA  Stack, Queue'!A1" display="11. DSA: Stack, Queue"/>
+    <hyperlink ref="C13" location="'12. Java Collection Framework'!A1" display="12. Java Collection Framework"/>
+    <hyperlink ref="C14" location="'13. Thuật toán tìm kiếm'!A1" display="13. Thuật toán tìm kiếm"/>
+    <hyperlink ref="C15" location="'14. Thuật toán sắp xếp'!A1" display="14. Thuật toán sắp xếp"/>
+    <hyperlink ref="C16" location="'15. Xử lí ngoại lệ &amp; Debug'!A1" display="15. Xử lí ngoại lệ &amp; Debug"/>
+    <hyperlink ref="C17" location="'16. IO  Text File'!A1" display="16. IO: Text File"/>
+    <hyperlink ref="C18" location="'17. IO  Binary File &amp; Serializa'!A1" display="17. IO: Binary File &amp; Serialization"/>
+    <hyperlink ref="C19" location="'19. String &amp; Regex'!A1" display="19. String &amp; Regex"/>
+    <hyperlink ref="C20" location="'20. OOAD &amp; SOLID'!A1" display="20. OOAD &amp; SOLID"/>
+    <hyperlink ref="C21" location="'21. Design Patterns'!A1" display="21. Design Patterns"/>
+    <hyperlink ref="C22" location="'22. Structural Design Pattern'!A1" display="22. Structural Design Pattern"/>
+    <hyperlink ref="C23" location="'23. Behavioral Design Pattern'!A1" display="23. Behavioral Design Pattern"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3660,17 +3659,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA4543D-AB1C-4070-BB27-83B6E96E5552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3679,8 +3678,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>226</v>
       </c>
@@ -3696,61 +3695,61 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="89" t="s">
         <v>234</v>
       </c>
@@ -3758,43 +3757,43 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
       <c r="C20" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="89" t="s">
         <v>233</v>
       </c>
@@ -3802,83 +3801,83 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
       <c r="C22" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
       <c r="C26" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
       <c r="C27" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
       <c r="C28" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="95"/>
       <c r="C29" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
     </row>
@@ -3889,25 +3888,25 @@
     <mergeCell ref="B21:B29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{9CEB949E-7F52-4565-9D8E-E9A13589549B}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F944366A-55EA-4B67-8DB5-30EE63418E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="74.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -3915,8 +3914,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>248</v>
       </c>
@@ -3932,25 +3931,25 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="91"/>
       <c r="C7" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="89" t="s">
         <v>251</v>
       </c>
@@ -3958,25 +3957,25 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="91"/>
       <c r="C11" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="89" t="s">
         <v>256</v>
       </c>
@@ -3984,13 +3983,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="89" t="s">
         <v>259</v>
       </c>
@@ -3998,65 +3997,65 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="95"/>
       <c r="C19" s="18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
     </row>
@@ -4068,7 +4067,7 @@
     <mergeCell ref="B14:B19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{6517F6DE-94DD-4DE8-A2B7-998484D4D97A}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4076,18 +4075,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CA3ACC-5C80-4323-819E-BCE478BDE3BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="79.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -4095,8 +4094,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>272</v>
       </c>
@@ -4112,31 +4111,31 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="91"/>
       <c r="C8" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="89" t="s">
         <v>278</v>
       </c>
@@ -4144,101 +4143,101 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="90"/>
       <c r="C13" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
       <c r="C14" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
       <c r="C20" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
       <c r="C21" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
       <c r="C22" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="95"/>
       <c r="C24" s="18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
     </row>
@@ -4248,24 +4247,24 @@
     <mergeCell ref="B9:B24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{695E0AAE-47A6-42E3-9598-22404876377B}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F5541F-FE04-43B7-813B-64A66BAB7F37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4274,8 +4273,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>294</v>
       </c>
@@ -4291,31 +4290,31 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="91"/>
       <c r="C8" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="89" t="s">
         <v>299</v>
       </c>
@@ -4323,37 +4322,37 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="90"/>
       <c r="C13" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="91"/>
       <c r="C14" s="13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="89" t="s">
         <v>305</v>
       </c>
@@ -4361,47 +4360,47 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
       <c r="C20" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="95"/>
       <c r="C21" s="18" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
     </row>
@@ -4412,24 +4411,24 @@
     <mergeCell ref="B15:B21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{B2F1B6A5-70E3-46AB-A7C6-2FE93E6E174D}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDD75F2-34B4-4ED5-8E2A-622EF01D90C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4438,8 +4437,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>312</v>
       </c>
@@ -4458,13 +4457,13 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="91"/>
       <c r="C5" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="89" t="s">
         <v>315</v>
       </c>
@@ -4472,49 +4471,49 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="89" t="s">
         <v>324</v>
       </c>
@@ -4522,43 +4521,43 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
       <c r="C20" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="99" t="s">
         <v>333</v>
       </c>
@@ -4566,37 +4565,37 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="99"/>
       <c r="C22" s="69" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="99"/>
       <c r="C23" s="69" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="99"/>
       <c r="C24" s="69" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="99"/>
       <c r="C26" s="70" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="100"/>
       <c r="C27" s="71" t="s">
         <v>340</v>
@@ -4610,7 +4609,7 @@
     <mergeCell ref="B21:B27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{2D1FB75C-EE7F-46B5-9E15-DA0E6C1E85FE}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4618,17 +4617,17 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B65EA0-9ED7-4F59-8262-11F79C7FF377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -4636,8 +4635,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>342</v>
       </c>
@@ -4653,39 +4652,39 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="91"/>
       <c r="C7" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="89" t="s">
         <v>347</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="91"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="89" t="s">
         <v>348</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="95"/>
       <c r="C12" s="18" t="s">
         <v>350</v>
@@ -4706,7 +4705,7 @@
     <mergeCell ref="B11:B12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{AB62C0B0-2854-41E0-8A04-53949E0C4A19}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4714,17 +4713,17 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368DE09-08F4-4753-9D4F-D0F10DF71B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="81.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -4732,8 +4731,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="92" t="s">
         <v>352</v>
       </c>
@@ -4749,31 +4748,31 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="94"/>
       <c r="C5" s="13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="89" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="91"/>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="89" t="s">
         <v>356</v>
       </c>
@@ -4781,19 +4780,19 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="95"/>
       <c r="C13" s="18" t="s">
         <v>360</v>
@@ -4806,7 +4805,7 @@
     <mergeCell ref="B10:B13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{0A946CE2-8D6D-4222-A0C2-96593E4EDCD1}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4814,17 +4813,17 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB03DA34-23BB-4C5A-809C-2E032C2E5E21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="77.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -4832,8 +4831,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>362</v>
       </c>
@@ -4849,49 +4848,49 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="91"/>
       <c r="C11" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="89" t="s">
         <v>378</v>
       </c>
@@ -4899,25 +4898,25 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="90"/>
       <c r="C13" s="19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
       <c r="C14" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="91"/>
       <c r="C15" s="20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="101" t="s">
         <v>379</v>
       </c>
@@ -4925,31 +4924,31 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="101"/>
       <c r="C17" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="101"/>
       <c r="C18" s="14" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="101"/>
       <c r="C19" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="101"/>
       <c r="C20" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="102"/>
       <c r="C21" s="74" t="s">
         <v>382</v>
@@ -4962,7 +4961,7 @@
     <mergeCell ref="B16:B21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{6874C7D7-E011-4615-B2D9-269865BEDC6B}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4970,17 +4969,17 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A85DC63-2E33-4F09-8DE0-65A20386D0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="78.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -4988,8 +4987,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>384</v>
       </c>
@@ -5005,19 +5004,19 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="91"/>
       <c r="C6" s="13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="89" t="s">
         <v>388</v>
       </c>
@@ -5025,37 +5024,37 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="91"/>
       <c r="C12" s="13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="89" t="s">
         <v>395</v>
       </c>
@@ -5063,25 +5062,25 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
       <c r="C14" s="19" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="19" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="91"/>
       <c r="C16" s="20" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="85" t="s">
         <v>399</v>
       </c>
@@ -5089,19 +5088,19 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="86"/>
       <c r="C18" s="14" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="87"/>
       <c r="C19" s="20" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="85" t="s">
         <v>403</v>
       </c>
@@ -5109,13 +5108,13 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="87"/>
       <c r="C21" s="20" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="85" t="s">
         <v>406</v>
       </c>
@@ -5123,13 +5122,13 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="86"/>
       <c r="C23" s="19" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="88"/>
       <c r="C24" s="74" t="s">
         <v>407</v>
@@ -5145,24 +5144,24 @@
     <mergeCell ref="B20:B21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{25A7F95E-684C-4408-9AAF-2BE94097268F}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43345DC-CC62-4724-BA7A-6BC2E8510371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="78.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -5170,8 +5169,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>411</v>
       </c>
@@ -5187,55 +5186,55 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="91"/>
       <c r="C12" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="89" t="s">
         <v>421</v>
       </c>
@@ -5243,43 +5242,43 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
       <c r="C14" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="19" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="19" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="91"/>
       <c r="C19" s="20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="85" t="s">
         <v>429</v>
       </c>
@@ -5287,19 +5286,19 @@
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="86"/>
       <c r="C21" s="19" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="87"/>
       <c r="C22" s="20" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="85" t="s">
         <v>433</v>
       </c>
@@ -5307,31 +5306,31 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="86"/>
       <c r="C24" s="19" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="86"/>
       <c r="C25" s="19" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="86"/>
       <c r="C26" s="19" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="86"/>
       <c r="C27" s="19" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="88"/>
       <c r="C28" s="74" t="s">
         <v>439</v>
@@ -5345,24 +5344,24 @@
     <mergeCell ref="B23:B28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{544F335D-E6EE-4DA3-A728-08A204DC6476}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54D1B9A-89CC-4231-A028-FF31A8FAE2D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="21" x14ac:dyDescent="0.4">
@@ -5370,8 +5369,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="82" t="s">
         <v>36</v>
       </c>
@@ -5387,13 +5386,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="83"/>
       <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="82" t="s">
         <v>14</v>
       </c>
@@ -5401,25 +5400,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="84"/>
       <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="84"/>
       <c r="D8" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="83"/>
       <c r="D9" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="85" t="s">
         <v>23</v>
       </c>
@@ -5427,31 +5426,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="86"/>
       <c r="D11" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="86"/>
       <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="86"/>
       <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="87"/>
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="85" t="s">
         <v>24</v>
       </c>
@@ -5459,49 +5458,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="86"/>
       <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="86"/>
       <c r="D17" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="86"/>
       <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="86"/>
       <c r="D19" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="86"/>
       <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="86"/>
       <c r="D21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="87"/>
       <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="85" t="s">
         <v>32</v>
       </c>
@@ -5509,13 +5508,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="86"/>
       <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="88"/>
       <c r="D25" s="18" t="s">
         <v>35</v>
@@ -5530,7 +5529,7 @@
     <mergeCell ref="C23:C25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D1" location="Menu!A1" display="1. Introduction to Java" xr:uid="{3EA508D5-D199-4F62-B286-6FAE2C46B1D5}"/>
+    <hyperlink ref="D1" location="Menu!A1" display="1. Introduction to Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5539,17 +5538,17 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B42CD93-98FC-475A-971C-CC37735629A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="78.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -5557,8 +5556,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -5566,122 +5565,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="75"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="76"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="76"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="76"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="76"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="76"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="76"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="76"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="76"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="76"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="76"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="76"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="76"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="76"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="76"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="77"/>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="77"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="77"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="77"/>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="77"/>
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="77"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="77"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="77"/>
       <c r="C27" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{24F3A2BB-3AEB-42EA-83BD-84A2B0137F06}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F400A950-420D-4503-8E10-60C8F080BCE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="78.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -5689,8 +5688,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -5698,128 +5697,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="75"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="76"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="76"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="76"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="76"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="76"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="76"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="76"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="76"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="76"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="76"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="76"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="76"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="76"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="76"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="77"/>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="77"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="77"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="77"/>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="77"/>
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="77"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="77"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="77"/>
       <c r="C27" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{B042052B-1CE4-427B-B0E2-222277038453}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA777E0A-12C4-4D1A-9EDC-555AE6454CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="71.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="65.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="74.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" customWidth="1"/>
-    <col min="16" max="16" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="71.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" customWidth="1"/>
+    <col min="8" max="8" width="65.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.796875" customWidth="1"/>
+    <col min="16" max="16" width="77.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.4">
@@ -5830,8 +5829,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="84" t="s">
         <v>39</v>
       </c>
@@ -5855,7 +5854,7 @@
       <c r="O4" s="89"/>
       <c r="P4" s="30"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="84"/>
       <c r="C5" s="25" t="s">
         <v>41</v>
@@ -5863,7 +5862,7 @@
       <c r="O5" s="90"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="84"/>
       <c r="C6" s="25" t="s">
         <v>2</v>
@@ -5871,7 +5870,7 @@
       <c r="O6" s="90"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="84"/>
       <c r="C7" s="25" t="s">
         <v>42</v>
@@ -5879,7 +5878,7 @@
       <c r="O7" s="91"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="83"/>
       <c r="C8" s="43" t="s">
         <v>43</v>
@@ -5887,7 +5886,7 @@
       <c r="O8" s="92"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="85" t="s">
         <v>44</v>
       </c>
@@ -5897,7 +5896,7 @@
       <c r="O9" s="93"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="86"/>
       <c r="C10" s="25" t="s">
         <v>140</v>
@@ -5905,7 +5904,7 @@
       <c r="O10" s="94"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="86"/>
       <c r="C11" s="27" t="s">
         <v>46</v>
@@ -5913,7 +5912,7 @@
       <c r="O11" s="89"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="86"/>
       <c r="C12" s="26" t="s">
         <v>47</v>
@@ -5921,7 +5920,7 @@
       <c r="O12" s="90"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="86"/>
       <c r="C13" s="25" t="s">
         <v>48</v>
@@ -5929,7 +5928,7 @@
       <c r="O13" s="90"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="86"/>
       <c r="C14" s="25" t="s">
         <v>49</v>
@@ -5937,7 +5936,7 @@
       <c r="O14" s="90"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="87"/>
       <c r="C15" s="28" t="s">
         <v>50</v>
@@ -5945,7 +5944,7 @@
       <c r="O15" s="90"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="85" t="s">
         <v>51</v>
       </c>
@@ -5955,7 +5954,7 @@
       <c r="O16" s="91"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="86"/>
       <c r="C17" s="46" t="s">
         <v>53</v>
@@ -5963,7 +5962,7 @@
       <c r="O17" s="92"/>
       <c r="P17" s="33"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="86"/>
       <c r="C18" s="45" t="s">
         <v>54</v>
@@ -5973,7 +5972,7 @@
       <c r="O18" s="93"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="86"/>
       <c r="C19" s="41" t="s">
         <v>55</v>
@@ -5983,7 +5982,7 @@
       <c r="O19" s="93"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="86"/>
       <c r="C20" s="41" t="s">
         <v>56</v>
@@ -5993,7 +5992,7 @@
       <c r="O20" s="93"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="86"/>
       <c r="C21" s="42" t="s">
         <v>57</v>
@@ -6003,7 +6002,7 @@
       <c r="O21" s="93"/>
       <c r="P21" s="31"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="86"/>
       <c r="C22" s="14" t="s">
         <v>193</v>
@@ -6013,7 +6012,7 @@
       <c r="O22" s="93"/>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="88"/>
       <c r="C23" s="15" t="s">
         <v>4</v>
@@ -6023,57 +6022,57 @@
       <c r="O23" s="93"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G24" s="50"/>
       <c r="H24" s="49"/>
       <c r="O24" s="93"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G25" s="50"/>
       <c r="H25" s="49"/>
       <c r="O25" s="93"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
       <c r="O26" s="93"/>
       <c r="P26" s="31"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O27" s="94"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O28" s="34"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O29" s="4"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O30" s="4"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O31" s="5"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O32" s="5"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O33" s="5"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O34" s="5"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O35" s="5"/>
       <c r="P35" s="2"/>
     </row>
@@ -6088,8 +6087,8 @@
     <mergeCell ref="B16:B23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P1" r:id="rId1" location="section-8" display="https://james.codegym.vn/course/view.php?id=572 - section-8" xr:uid="{DEA33D80-75F2-4FD4-9FED-5A596019CB25}"/>
-    <hyperlink ref="C1" location="Menu!A1" display="2. Vòng lặp trong Java" xr:uid="{BDE0F223-3BD7-440E-9E7E-A24C5DB1DFE1}"/>
+    <hyperlink ref="P1" r:id="rId1" location="section-8" display="https://james.codegym.vn/course/view.php?id=572 - section-8"/>
+    <hyperlink ref="C1" location="Menu!A1" display="2. Vòng lặp trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -6098,21 +6097,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B092EF-9974-47B7-AB66-B713DF13341D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="68.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="21" x14ac:dyDescent="0.4">
@@ -6124,13 +6123,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="84"/>
       <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="82" t="s">
         <v>72</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="83"/>
       <c r="D5" s="52" t="s">
         <v>60</v>
@@ -6166,7 +6165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="85" t="s">
         <v>61</v>
       </c>
@@ -6174,67 +6173,67 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="86"/>
       <c r="D7" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="86"/>
       <c r="D8" s="45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="86"/>
       <c r="D9" s="41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="86"/>
       <c r="D10" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="86"/>
       <c r="D11" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="86"/>
       <c r="D12" s="41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="86"/>
       <c r="D13" s="41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="86"/>
       <c r="D14" s="41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="86"/>
       <c r="D15" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="86"/>
       <c r="D16" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="88"/>
       <c r="D17" s="54" t="s">
         <v>71</v>
@@ -6247,7 +6246,7 @@
     <mergeCell ref="C6:C17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D1" location="Menu!A1" display="3. Mảng và phương thức trong Java" xr:uid="{43F92173-0EAB-4EC1-AE1D-634CD007888C}"/>
+    <hyperlink ref="D1" location="Menu!A1" display="3. Mảng và phương thức trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6255,18 +6254,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C7DAF-4FEC-4EA1-B1FD-89394A54556B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
+    <col min="3" max="3" width="75.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -6274,8 +6273,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>74</v>
       </c>
@@ -6291,41 +6290,41 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="91"/>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="89" t="s">
         <v>76</v>
       </c>
@@ -6333,79 +6332,79 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
       <c r="C14" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
       <c r="C20" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="89" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="85" t="s">
         <v>86</v>
       </c>
@@ -6413,79 +6412,79 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="86"/>
       <c r="C29" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="86"/>
       <c r="C30" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="86"/>
       <c r="C31" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="86"/>
       <c r="C32" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="86"/>
       <c r="C33" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="86"/>
       <c r="C34" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="86"/>
       <c r="C35" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="86"/>
       <c r="C36" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="86"/>
       <c r="C37" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="86"/>
       <c r="C38" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="86"/>
       <c r="C39" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="86"/>
       <c r="C40" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="88"/>
       <c r="C41" s="18" t="s">
         <v>100</v>
@@ -6499,7 +6498,7 @@
     <mergeCell ref="B21:B27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{87F6EBA2-3AD6-4BBF-995E-86FC3C4D6A9F}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6508,17 +6507,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFAA436-7F16-4E65-B6AB-8E308736DFA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6527,8 +6526,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>105</v>
       </c>
@@ -6544,43 +6543,43 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="91"/>
       <c r="C10" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="89" t="s">
         <v>111</v>
       </c>
@@ -6588,19 +6587,19 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="89" t="s">
         <v>115</v>
       </c>
@@ -6608,79 +6607,79 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
       <c r="C20" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
       <c r="C21" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
       <c r="C22" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="91"/>
       <c r="C26" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="89" t="s">
         <v>127</v>
       </c>
@@ -6688,77 +6687,77 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
       <c r="C28" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="90"/>
       <c r="C29" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="90"/>
       <c r="C30" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="90"/>
       <c r="C31" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="90"/>
       <c r="C32" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="90"/>
       <c r="C33" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="95"/>
       <c r="C34" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
     </row>
@@ -6770,24 +6769,24 @@
     <mergeCell ref="B27:B34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{F1C18637-CF39-4645-BDD1-F4F3F8CA86CE}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A82A1A-2EB2-4D4B-92AF-238967E5F8A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6796,8 +6795,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>141</v>
       </c>
@@ -6813,49 +6812,49 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="91"/>
       <c r="C11" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="89" t="s">
         <v>150</v>
       </c>
@@ -6863,13 +6862,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="96" t="s">
         <v>153</v>
       </c>
@@ -6877,13 +6876,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="97"/>
       <c r="C15" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90" t="s">
         <v>156</v>
       </c>
@@ -6891,89 +6890,89 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="90"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="91"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
     </row>
@@ -6985,7 +6984,7 @@
     <mergeCell ref="B16:B30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{94BCD222-8227-4C1D-9AB6-B683664A9885}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6994,20 +6993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D70C4C-0B33-4E64-A154-C2F48B8138C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="21" x14ac:dyDescent="0.4">
@@ -7015,8 +7014,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>160</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>162</v>
@@ -7056,7 +7055,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>163</v>
@@ -7068,7 +7067,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="91"/>
       <c r="C7" s="13" t="s">
         <v>164</v>
@@ -7080,7 +7079,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="89" t="s">
         <v>165</v>
       </c>
@@ -7092,7 +7091,7 @@
       </c>
       <c r="F8" s="67"/>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>167</v>
@@ -7104,43 +7103,43 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="90"/>
       <c r="C13" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="90"/>
       <c r="C14" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="91"/>
       <c r="C15" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="89" t="s">
         <v>181</v>
       </c>
@@ -7148,85 +7147,85 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
       <c r="C20" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
       <c r="C21" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
       <c r="C22" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="95"/>
       <c r="C25" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
     </row>
@@ -7237,7 +7236,7 @@
     <mergeCell ref="B16:B25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{C2808F2A-D370-4054-A3EB-5FCE9D55A100}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7245,17 +7244,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A4B7B-CC27-4875-94C9-235539E52D16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7264,8 +7263,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>195</v>
       </c>
@@ -7281,187 +7280,187 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="90"/>
       <c r="C5" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="90"/>
       <c r="C6" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="90"/>
       <c r="C9" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="90"/>
       <c r="C10" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
       <c r="C11" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="90"/>
       <c r="C12" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="89" t="s">
         <v>204</v>
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
       <c r="C21" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
       <c r="C22" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
       <c r="C26" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
       <c r="C27" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
       <c r="C28" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="91"/>
       <c r="C29" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="92" t="s">
         <v>214</v>
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="98"/>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
     </row>
@@ -7472,7 +7471,7 @@
     <mergeCell ref="B30:B33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java" xr:uid="{33B50113-F7E6-44CB-B1A4-F37ACB1769D8}"/>
+    <hyperlink ref="C1" location="Menu!A1" display="4. Lớp và đối tượng trong Java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
